--- a/ConsoleApplication1/graphics.xlsx
+++ b/ConsoleApplication1/graphics.xlsx
@@ -5,22 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\laba 2\ConsoleApplication1\ConsoleApplication1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\LABA2\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27935F54-C8CF-4A02-AB97-F3D37F71D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF61CF7-AC2C-4E62-B0FD-284FC7E3F68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D34B634-18C0-4C5E-9DC6-9381BF5E7519}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$24:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$24:$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$C$24:$C$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$D$24:$D$26</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,13 +48,13 @@
     <t>Data</t>
   </si>
   <si>
-    <t>partial quicksort sort</t>
+    <t>reverse quick sort</t>
   </si>
   <si>
-    <t>sorted</t>
+    <t>sort</t>
   </si>
   <si>
-    <t>reverse quick sort</t>
+    <t>SortSorted</t>
   </si>
 </sst>
 </file>
@@ -715,7 +709,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -729,8 +723,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>сравнение результатов</a:t>
+              <a:t>графики</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> скорости работы сортировок</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -747,7 +746,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -770,61 +769,238 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0469816272965886E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.88707874015748034"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="6.7261592300962375E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.87129396325459318"/>
+          <c:h val="0.61498432487605714"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$23:$D$23</c:f>
+              <c:f>Лист1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>partial quicksort sort sorted reverse quick sort</c:v>
+                  <c:v>sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
+              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$24:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>3.3217299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.20577100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54258300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4622-464E-AA66-DAE1305DD05B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortSorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4929399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.168045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51349100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4622-464E-AA66-DAE1305DD05B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reverse quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,13 +1012,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.101313</c:v>
+                  <c:v>5.1959999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
+                  <c:v>0.31069999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
+                  <c:v>0.81625099999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,470 +1026,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$24:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.3732E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5973000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6902600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.101313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.101313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.101313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.101313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.101313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2499499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.012499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7BA5-4821-BC1C-81FD97E56961}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$24:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.144619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1711400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.834339999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7BA5-4821-BC1C-81FD97E56961}"/>
+              <c16:uniqueId val="{00000006-4622-464E-AA66-DAE1305DD05B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102239424"/>
-        <c:axId val="2102232704"/>
+        <c:axId val="1600386815"/>
+        <c:axId val="1600378655"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102239424"/>
+        <c:axId val="1600386815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,11 +1068,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1386,12 +1099,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102232704"/>
+        <c:crossAx val="1600378655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102232704"/>
+        <c:axId val="1600378655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,8 +1130,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1442,10 +1161,21 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102239424"/>
+        <c:crossAx val="1600386815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1453,7 +1183,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1539,10 +1289,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2092,7 +1845,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2103,7 +1856,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2116,7 +1869,30 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2126,30 +1902,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2193,20 +1946,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2215,13 +1968,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2233,31 +1986,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2297,22 +2049,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2359,8 +2112,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2411,8 +2170,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2450,20 +2209,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2476,17 +2235,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2518,7 +2266,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2527,13 +2275,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2554,19 +2303,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2580,6 +2330,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2587,8 +2348,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2634,26 +2401,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173566</xdr:rowOff>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84668</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B684B898-75A5-FA72-8CCC-07DE7FCA8295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439191B4-A58F-497F-B3AD-3B87B46C4742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2969,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B2206D-6015-49C8-9BCA-AFEF311D779C}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,55 +2855,55 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B24">
-        <v>1.3732E-3</v>
+        <v>3.4929399999999999E-2</v>
       </c>
       <c r="C24">
-        <v>0.144619</v>
+        <v>3.3217299999999998E-2</v>
       </c>
       <c r="D24">
-        <v>0.101313</v>
+        <v>5.1959999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B25">
-        <v>6.5973000000000004E-3</v>
+        <v>0.168045</v>
       </c>
       <c r="C25">
-        <v>1.1711400000000001</v>
+        <v>0.20577100000000001</v>
       </c>
       <c r="D25">
-        <v>1.2499499999999999</v>
+        <v>0.31069999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="B26">
-        <v>1.6902600000000001</v>
+        <v>0.51349100000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>12.834339999999999</v>
+        <v>0.54258300000000004</v>
       </c>
       <c r="D26">
-        <v>14.012499999999999</v>
+        <v>0.81625099999999995</v>
       </c>
     </row>
   </sheetData>
